--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59174</v>
+        <v>76349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Fogaça</t>
+          <t>Dra. Maria Alice Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>9268.99</v>
+        <v>8185.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70753</v>
+        <v>4294</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clarice Pereira</t>
+          <t>Srta. Camila Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>6224.76</v>
+        <v>3072.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19618</v>
+        <v>31558</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julia Azevedo</t>
+          <t>Enrico Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>4325.74</v>
+        <v>9959.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77537</v>
+        <v>11203</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laís da Costa</t>
+          <t>Srta. Olivia Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,85 +581,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>10038.7</v>
+        <v>12458.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17864</v>
+        <v>38995</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Guilherme Costa</t>
+          <t>Esther Rezende</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>8098.48</v>
+        <v>11117.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12544</v>
+        <v>32390</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Clara Lopes</t>
+          <t>Bernardo Dias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>10535.36</v>
+        <v>5190.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19664</v>
+        <v>33391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Henrique da Rocha</t>
+          <t>Yago Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>10106.72</v>
+        <v>7320.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10936</v>
+        <v>19598</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo da Rocha</t>
+          <t>Dra. Melissa Ramos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>11410.21</v>
+        <v>11478.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>48670</v>
+        <v>21190</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Lucca Aragão</t>
+          <t>Mariane Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>6240.23</v>
+        <v>4965.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80387</v>
+        <v>32322</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luigi Caldeira</t>
+          <t>Maria Vitória Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>5444.49</v>
+        <v>6881.39</v>
       </c>
     </row>
   </sheetData>
